--- a/06-29-25 to 07-05-25 Madison Schedule.xlsx
+++ b/06-29-25 to 07-05-25 Madison Schedule.xlsx
@@ -666,7 +666,10 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5:00 AM START</t>
+          <t>Scan product if shelf tag won't scan.
+Use Category 000
+No prices on DCs - QTY only
+FOR NOT ON FILES: force in with quantity, put one item in cart w/ price on a sticky note</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -719,11 +722,7 @@
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -770,11 +769,7 @@
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>OUTPOST NATURAL FOODS, MILWAUKEE</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -821,11 +816,7 @@
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>100 E CAPITOL DR</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -868,11 +859,7 @@
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/n94xpFtHzvE2</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -917,7 +904,7 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>*IL Meet is 3:30 am at IL office</t>
+          <t>5:00 AM START</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -962,7 +949,11 @@
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
@@ -1004,21 +995,13 @@
       <c r="Y14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>OUTPOST NATURAL FOODS, MILWAUKEE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
@@ -1051,14 +1034,10 @@
       <c r="Y15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>100 E CAPITOL DR</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1116,14 +1095,10 @@
       <c r="Y16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>https://goo.gl/maps/n94xpFtHzvE2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1188,14 +1163,10 @@
       <c r="Y17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>*IL Meet is 3:30 am at IL office</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1261,22 +1232,9 @@
       <c r="Y18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry 3</t>
-        </is>
-      </c>
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
@@ -1334,9 +1292,21 @@
       <c r="Y19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
@@ -1394,8 +1364,16 @@
       <c r="Y20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Anisha</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
@@ -1454,10 +1432,14 @@
       <c r="Y21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5:00 AM START</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1489,10 +1471,14 @@
       <c r="Y22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1524,13 +1510,22 @@
       <c r="Y23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>OUTPOST NATURAL FOODS, WAUWATOSA</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry 3</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
@@ -1572,11 +1567,7 @@
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>7000 W STATE ST</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
@@ -1619,11 +1610,7 @@
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/9Apjjj8M6672</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
@@ -1668,7 +1655,7 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>*IL Meet is 3:30 am at IL office</t>
+          <t>5:00 AM START</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1713,7 +1700,11 @@
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
@@ -1751,21 +1742,13 @@
       <c r="Y28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>OUTPOST NATURAL FOODS, WAUWATOSA</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
@@ -1814,14 +1797,10 @@
       <c r="Y29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>7000 W STATE ST</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1849,22 +1828,13 @@
       <c r="Y30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/9Apjjj8M6672</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
@@ -1925,14 +1895,10 @@
       <c r="Y31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>*IL Meet is 3:30 am at IL office</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1988,22 +1954,9 @@
       <c r="Y32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
@@ -2049,9 +2002,21 @@
       <c r="Y33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
@@ -2097,8 +2062,16 @@
       <c r="Y34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Angela</t>
+        </is>
+      </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
@@ -2144,9 +2117,22 @@
       <c r="Y35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
@@ -2191,8 +2177,16 @@
       <c r="Y36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Evelin</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
@@ -2238,9 +2232,22 @@
       <c r="Y37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">

--- a/06-29-25 to 07-05-25 Madison Schedule.xlsx
+++ b/06-29-25 to 07-05-25 Madison Schedule.xlsx
@@ -1753,7 +1753,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>6:00 am meet for Sarah &amp; Lori at **Fest Foods Baraboo</t>
+          <t>6:00 am meet for Sarah &amp; Lori at **Festival Foods Baraboo</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>

--- a/06-29-25 to 07-05-25 Madison Schedule.xlsx
+++ b/06-29-25 to 07-05-25 Madison Schedule.xlsx
@@ -736,7 +736,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1118,12 +1118,13 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver, 1/2
+Optima, Equip</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
@@ -1245,17 +1246,8 @@
           <t>3)</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
@@ -1920,7 +1912,11 @@
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
@@ -1963,7 +1959,11 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
@@ -2023,7 +2023,11 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>NEW - MAIN ST MOBIL MART, VIROQUA</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
@@ -2083,7 +2087,11 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>726 N. MAIN ST</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
@@ -2143,7 +2151,11 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/GnUeDGDe1p2CHBFd9</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
@@ -2198,7 +2210,11 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>5:30 am meet for Sarah &amp; Lori at **Festival Foods Baraboo</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
@@ -2296,9 +2312,21 @@
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Driver, Equip</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
@@ -2327,8 +2355,16 @@
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>

--- a/06-29-25 to 07-05-25 Madison Schedule.xlsx
+++ b/06-29-25 to 07-05-25 Madison Schedule.xlsx
@@ -2196,7 +2196,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2383,7 +2383,11 @@
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>5:00 AM START</t>
+        </is>
+      </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
@@ -2414,7 +2418,11 @@
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
@@ -2441,7 +2449,11 @@
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>OUTPOST NATURAL FOODS, BAY VIEW</t>
+        </is>
+      </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
@@ -2480,7 +2492,11 @@
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2826 S KINNICKINNIC AVE</t>
+        </is>
+      </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
@@ -2515,7 +2531,11 @@
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5hiyyxywjiH2</t>
+        </is>
+      </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
@@ -2550,7 +2570,11 @@
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>*3:30 am IL office leave time</t>
+        </is>
+      </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
@@ -2624,9 +2648,21 @@
       <c r="Y47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
@@ -2664,9 +2700,22 @@
       <c r="Y48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>@ Store,
+Optima</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
@@ -2699,9 +2748,21 @@
       <c r="Y49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
@@ -2734,9 +2795,21 @@
       <c r="Y50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr"/>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>

--- a/06-29-25 to 07-05-25 Madison Schedule.xlsx
+++ b/06-29-25 to 07-05-25 Madison Schedule.xlsx
@@ -1187,15 +1187,10 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
@@ -1246,8 +1241,17 @@
           <t>3)</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>

--- a/06-29-25 to 07-05-25 Madison Schedule.xlsx
+++ b/06-29-25 to 07-05-25 Madison Schedule.xlsx
@@ -983,7 +983,7 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>*IL Meet is 6:00 am at IL office</t>
+          <t>*IL Meet is 5:15 am at IL office</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
